--- a/test/data/excel/test_single_excel_maweti.xlsx
+++ b/test/data/excel/test_single_excel_maweti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="80" windowWidth="18900" windowHeight="7340"/>
+    <workbookView xWindow="160" yWindow="80" windowWidth="18900" windowHeight="7340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aché" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>dáhui</t>
   </si>
@@ -23,48 +23,24 @@
     <t>Meléndez2011</t>
   </si>
   <si>
-    <t>wáluluteʃi</t>
-  </si>
-  <si>
-    <t>wálulutesi</t>
-  </si>
-  <si>
-    <t>ADAM'S APPLE</t>
-  </si>
-  <si>
     <t>salíiri</t>
   </si>
   <si>
     <t>salí:ɻi</t>
   </si>
   <si>
-    <t>ADULT (n.)</t>
-  </si>
-  <si>
     <t>káaɻu</t>
   </si>
   <si>
     <t>ká:ɻu</t>
   </si>
   <si>
-    <t>AFRAID (stat. v. or adj.)</t>
-  </si>
-  <si>
     <t>ZJO: /ka:ru/ 'miedo' (Melendez2011)</t>
   </si>
   <si>
     <t>Ramirez2001a</t>
   </si>
   <si>
-    <t>taikala</t>
-  </si>
-  <si>
-    <t>AFTERNOON</t>
-  </si>
-  <si>
-    <t>NA:Melendez2011</t>
-  </si>
-  <si>
     <t>bánio</t>
   </si>
   <si>
@@ -92,27 +68,6 @@
     <t>nut͡suma</t>
   </si>
   <si>
-    <t>yamury</t>
-  </si>
-  <si>
-    <t>jamuɾi</t>
-  </si>
-  <si>
-    <t>AOTUS SP. (night monkey)</t>
-  </si>
-  <si>
-    <t>(ya)</t>
-  </si>
-  <si>
-    <t>nughâno</t>
-  </si>
-  <si>
-    <t>nukanu</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
     <t>nutanachy</t>
   </si>
   <si>
@@ -162,6 +117,12 @@
   </si>
   <si>
     <t>polysemy_concept</t>
+  </si>
+  <si>
+    <t>ADULT</t>
+  </si>
+  <si>
+    <t>AFRAID</t>
   </si>
 </sst>
 </file>
@@ -544,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -557,34 +518,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
@@ -592,10 +553,10 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -608,10 +569,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -629,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -649,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -662,19 +623,21 @@
     <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -686,60 +649,18 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -749,136 +670,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/excel/test_single_excel_maweti.xlsx
+++ b/test/data/excel/test_single_excel_maweti.xlsx
@@ -360,13 +360,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25"/>
   </cols>
@@ -497,25 +497,27 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -539,7 +541,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
